--- a/src/test/resources/Book1.xlsx
+++ b/src/test/resources/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14830" windowHeight="3020" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14850" windowHeight="3850"/>
   </bookViews>
   <sheets>
     <sheet name="Commondata" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="testcasedata" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M8"/>
+  <oleSize ref="A1:K11"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -531,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -841,7 +841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/Book1.xlsx
+++ b/src/test/resources/Book1.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14850" windowHeight="3850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14850" windowHeight="3850" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Commondata" sheetId="1" r:id="rId1"/>
-    <sheet name="logindata" sheetId="4" r:id="rId2"/>
-    <sheet name="Organization" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
-    <sheet name="testcasedata" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
+    <sheet name="logindata" sheetId="4" r:id="rId3"/>
+    <sheet name="Organization" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId5"/>
+    <sheet name="testcasedata" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K11"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>username</t>
   </si>
@@ -147,6 +147,15 @@
   </si>
   <si>
     <t>→ HR Head</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>Usernme</t>
+  </si>
+  <si>
+    <t>Password</t>
   </si>
 </sst>
 </file>
@@ -531,7 +540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -655,6 +664,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -691,7 +730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -814,7 +853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -837,7 +876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
